--- a/data/processed/documents/APP-000005/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000005/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reem Al Shehhi</t>
+          <t>Salim Al Kalbani</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7000</v>
+        <v>6547.63</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>11775</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>29290</v>
+        <v>24782</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>-17515</v>
+        <v>-20791</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>11775</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="3">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C3" s="10" t="n">
-        <v>11775</v>
+        <v>3991</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>29290</v>
+        <v>24782</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1464</v>
+        <v>1239</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C3" s="12" t="n">
-        <v>29290</v>
+        <v>24782</v>
       </c>
     </row>
   </sheetData>
